--- a/input/Book2.xlsx
+++ b/input/Book2.xlsx
@@ -24,10 +24,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>jagan</t>
   </si>
   <si>
-    <t>admin123</t>
+    <t>Bob@12345</t>
   </si>
 </sst>
 </file>
@@ -380,13 +380,13 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Bob@1234"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
